--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/44/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/44/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01701701701701702</v>
+        <v>0.4093409340934094</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>906.906906906907</v>
+        <v>1713.641364136414</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02972972972972973</v>
+        <v>0.08307830783078309</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4784784784784785</v>
+        <v>0.0123012301230123</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1253.253253253253</v>
+        <v>891.8091809180919</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.7857857857858</v>
+        <v>390.8190819081908</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>820.8208208208209</v>
+        <v>722.1503150315031</v>
       </c>
     </row>
   </sheetData>
